--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-04_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-04_beg.xlsx
@@ -436,7 +436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  "Enemies are secretly looking for an extremely high-value target. It is necessary to determine their actions first."
+    <t xml:space="preserve">[name="Ch'en"]  'Enemies are secretly looking for an extremely high-value target. It is necessary to determine their actions first.'
 </t>
   </si>
   <si>
